--- a/Hinjawadi_cleaned.xlsx
+++ b/Hinjawadi_cleaned.xlsx
@@ -3074,6 +3074,7 @@
         <color rgb="FF000000"/>
         <rFont val="Lohit Devanagari"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">द</t>
     </r>
@@ -6848,6 +6849,7 @@
       <color rgb="FF000000"/>
       <name val="Lohit Devanagari"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -6924,13 +6926,13 @@
   </sheetPr>
   <dimension ref="A1:F961"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4921875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="48.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="26.64"/>
